--- a/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/casino_clerk.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/casino_clerk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ABE6B7-C282-4924-B506-7416ECA2571C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C71673C-CABB-4AAB-A03C-6DEEC6BD55C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,10 +171,10 @@
     <t>cancel</t>
   </si>
   <si>
-    <t xml:space="preserve">Esta é sua primeira visita hoje, certo? Aqui está seu cartão de raspadinha grátis!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sino dourado anuncia boa sorte... Bem-vindo ao 'Sino da Fortuna', o único dirigível cassino do mundo. Sinta-se à vontade para aproveitar até que sua carteira esteja vazia.  </t>
+    <t xml:space="preserve">Esta é sua primeira visita hoje, certo? Aqui está sua raspadinha grátis! </t>
+  </si>
+  <si>
+    <t>O sino dourado anuncia a boa sorte... Bem-vindo ao ''Sino da Fortuna'', o único dirigível de cassino do mundo. Sinta-se à vontade para aproveitar até que sua carteira esteja vazia.</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
